--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.5967399226990199</v>
+        <v>-0.9359753552827834</v>
       </c>
       <c r="C2">
-        <v>0.9102360717554748</v>
+        <v>0.8666104587696625</v>
       </c>
       <c r="D2">
-        <v>0.6174653081629563</v>
+        <v>0.9903577617804071</v>
       </c>
       <c r="E2">
-        <v>0.2948382180913485</v>
+        <v>0.5542245592565861</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.001553488415651</v>
+        <v>-0.6975756449286188</v>
       </c>
       <c r="C3">
-        <v>1.311402903324665</v>
+        <v>0.997046130931601</v>
       </c>
       <c r="D3">
-        <v>0.5355485845145489</v>
+        <v>0.7121777931734012</v>
       </c>
       <c r="E3">
-        <v>0.6270213865767031</v>
+        <v>0.3204521311352823</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6478566172896405</v>
+        <v>-0.4300625260085466</v>
       </c>
       <c r="C4">
-        <v>1.029657488328461</v>
+        <v>0.6509747653420066</v>
       </c>
       <c r="D4">
-        <v>0.7028502652763932</v>
+        <v>0.3894458810794604</v>
       </c>
       <c r="E4">
-        <v>0.1045585286436174</v>
+        <v>0.4341790316979381</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5092508202932419</v>
+        <v>-0.743438812065233</v>
       </c>
       <c r="C5">
-        <v>0.579846962761514</v>
+        <v>1.050365406882086</v>
       </c>
       <c r="D5">
-        <v>0.5704902155730995</v>
+        <v>0.6586191432080003</v>
       </c>
       <c r="E5">
-        <v>0.1981191375338363</v>
+        <v>0.4012185775492504</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4760055846092379</v>
+        <v>-0.218886835566033</v>
       </c>
       <c r="C6">
-        <v>0.5541926622268413</v>
+        <v>0.2936586198893791</v>
       </c>
       <c r="D6">
-        <v>0.4982409733503771</v>
+        <v>0.2304186474623484</v>
       </c>
       <c r="E6">
-        <v>0.3065934801066433</v>
+        <v>0.1641123544421821</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.049507344875976</v>
+        <v>-0.5213238839590545</v>
       </c>
       <c r="C7">
-        <v>1.360368434407429</v>
+        <v>0.673726949606718</v>
       </c>
       <c r="D7">
-        <v>0.9229607497426403</v>
+        <v>0.6330979188432332</v>
       </c>
       <c r="E7">
-        <v>0.15120244950782</v>
+        <v>0.4424136741206713</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2239131408644079</v>
+        <v>-0.6021980439052042</v>
       </c>
       <c r="C8">
-        <v>0.2676605703919596</v>
+        <v>0.9370840610697529</v>
       </c>
       <c r="D8">
-        <v>0.2298908259669483</v>
+        <v>0.6133245941077402</v>
       </c>
       <c r="E8">
-        <v>0.1588357499967475</v>
+        <v>0.3142382186236816</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.8758754104021718</v>
+        <v>-0.5022945686488034</v>
       </c>
       <c r="C9">
-        <v>1.293459681813383</v>
+        <v>0.7706357297091676</v>
       </c>
       <c r="D9">
-        <v>0.7344743640278781</v>
+        <v>0.3993009741934042</v>
       </c>
       <c r="E9">
-        <v>0.2407817370847286</v>
+        <v>0.3524045920915049</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.8272386764843171</v>
+        <v>-0.7348898520248215</v>
       </c>
       <c r="C10">
-        <v>0.9827788583754832</v>
+        <v>1.02210244738057</v>
       </c>
       <c r="D10">
-        <v>0.437685294252485</v>
+        <v>0.7612032645910163</v>
       </c>
       <c r="E10">
-        <v>0.698919117777195</v>
+        <v>0.2589931269978902</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.8716441072458138</v>
+        <v>-0.8496853171907771</v>
       </c>
       <c r="C11">
-        <v>1.341870058128127</v>
+        <v>1.274216982773793</v>
       </c>
       <c r="D11">
-        <v>0.2570313798469633</v>
+        <v>0.3992816263544151</v>
       </c>
       <c r="E11">
-        <v>0.626135573252291</v>
+        <v>0.7136727807178347</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.2837712132117717</v>
+        <v>-0.5565273226700519</v>
       </c>
       <c r="C12">
-        <v>0.2437756489291887</v>
+        <v>0.9208433550874933</v>
       </c>
       <c r="D12">
-        <v>0.3078897752613309</v>
+        <v>0.5202646349592432</v>
       </c>
       <c r="E12">
-        <v>0.196637704721967</v>
+        <v>0.2932072518865991</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.9450764098461581</v>
+        <v>-0.5127435798794465</v>
       </c>
       <c r="C13">
-        <v>1.149917116754749</v>
+        <v>0.7323554544063487</v>
       </c>
       <c r="D13">
-        <v>0.8574342301987836</v>
+        <v>0.535968024889545</v>
       </c>
       <c r="E13">
-        <v>0.4505255521964439</v>
+        <v>0.2663678614516155</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.6201126198564516</v>
+        <v>-1.050237274351706</v>
       </c>
       <c r="C14">
-        <v>0.9702823340590456</v>
+        <v>1.003355999582792</v>
       </c>
       <c r="D14">
-        <v>0.5251756794633322</v>
+        <v>1.253023007834282</v>
       </c>
       <c r="E14">
-        <v>0.3339006938212464</v>
+        <v>0.393006080135118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3954958726642438</v>
+        <v>-0.2529966409759917</v>
       </c>
       <c r="C15">
-        <v>0.5770177507250634</v>
+        <v>0.2233553709835633</v>
       </c>
       <c r="D15">
-        <v>0.3616287471337376</v>
+        <v>0.3249279759596616</v>
       </c>
       <c r="E15">
-        <v>0.3047184826902031</v>
+        <v>0.1802601385117481</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.5628146555937338</v>
+        <v>-0.6058611791847376</v>
       </c>
       <c r="C16">
-        <v>0.9323675438108513</v>
+        <v>0.9812723702938853</v>
       </c>
       <c r="D16">
-        <v>0.4367158107820422</v>
+        <v>0.595600043378944</v>
       </c>
       <c r="E16">
-        <v>0.3469294527478801</v>
+        <v>0.3207694418176346</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.002754380965674</v>
+        <v>-0.6542541721174024</v>
       </c>
       <c r="C17">
-        <v>0.9065601095774878</v>
+        <v>0.847805440548304</v>
       </c>
       <c r="D17">
-        <v>1.183574412797498</v>
+        <v>0.8294194840174237</v>
       </c>
       <c r="E17">
-        <v>0.2893773815839012</v>
+        <v>0.1994059548620737</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.8913430734525399</v>
+        <v>-0.6862387938843471</v>
       </c>
       <c r="C18">
-        <v>1.163539989198459</v>
+        <v>0.8509925790055811</v>
       </c>
       <c r="D18">
-        <v>0.7853757953953852</v>
+        <v>0.7455777517819068</v>
       </c>
       <c r="E18">
-        <v>0.443881123533981</v>
+        <v>0.5152389897065746</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4679083935805755</v>
+        <v>-1.060097907455272</v>
       </c>
       <c r="C19">
-        <v>0.6264142594498293</v>
+        <v>1.084718332498545</v>
       </c>
       <c r="D19">
-        <v>0.3819323519938305</v>
+        <v>0.7086384375074027</v>
       </c>
       <c r="E19">
-        <v>0.3282582970668039</v>
+        <v>0.8774720213410615</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.5078693998669461</v>
+        <v>-0.4180344119838236</v>
       </c>
       <c r="C20">
-        <v>0.9095967788194695</v>
+        <v>0.5441580798748458</v>
       </c>
       <c r="D20">
-        <v>0.4892522381674347</v>
+        <v>0.4603404176079015</v>
       </c>
       <c r="E20">
-        <v>0.2822404802157608</v>
+        <v>0.3488939728650492</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.4559379722003639</v>
+        <v>-0.8866825343090826</v>
       </c>
       <c r="C21">
-        <v>0.7116135411171066</v>
+        <v>1.187576324708805</v>
       </c>
       <c r="D21">
-        <v>0.4584979740792983</v>
+        <v>0.7506700606986293</v>
       </c>
       <c r="E21">
-        <v>0.2452876288780579</v>
+        <v>0.5741212184450698</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.109742697695917</v>
+        <v>-1.080438762995998</v>
       </c>
       <c r="C22">
-        <v>1.641095151986467</v>
+        <v>0.9353376638845582</v>
       </c>
       <c r="D22">
-        <v>0.4168662437972904</v>
+        <v>1.356873553928043</v>
       </c>
       <c r="E22">
-        <v>0.5254708591328369</v>
+        <v>0.4197180913521564</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.6581429403766413</v>
+        <v>-0.5772380720366983</v>
       </c>
       <c r="C23">
-        <v>1.179049207470987</v>
+        <v>0.6456536096739088</v>
       </c>
       <c r="D23">
-        <v>0.3656753431534473</v>
+        <v>0.612113799333442</v>
       </c>
       <c r="E23">
-        <v>0.4001194197739082</v>
+        <v>0.5530812547121249</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.739319190001144</v>
+        <v>-1.225004675034391</v>
       </c>
       <c r="C24">
-        <v>1.018175957299311</v>
+        <v>1.282827749242297</v>
       </c>
       <c r="D24">
-        <v>0.701777379144398</v>
+        <v>1.221518767743598</v>
       </c>
       <c r="E24">
-        <v>0.3683813658005833</v>
+        <v>0.4261826711755282</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.376923109382371</v>
+        <v>-0.5801458199298996</v>
       </c>
       <c r="C25">
-        <v>1.774642546047524</v>
+        <v>0.6856264805580338</v>
       </c>
       <c r="D25">
-        <v>0.5125453236937511</v>
+        <v>0.5981566462717428</v>
       </c>
       <c r="E25">
-        <v>0.8527969624667703</v>
+        <v>0.5524643584992193</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.528216160483497</v>
+        <v>-0.4186890092393013</v>
       </c>
       <c r="C26">
-        <v>0.4469154040174753</v>
+        <v>0.6470958706231968</v>
       </c>
       <c r="D26">
-        <v>0.5466250450150408</v>
+        <v>0.3972382607905209</v>
       </c>
       <c r="E26">
-        <v>0.4312676754635483</v>
+        <v>0.3847109511041801</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5090204356443548</v>
+        <v>-0.6092071711267254</v>
       </c>
       <c r="C27">
-        <v>0.7074075548803029</v>
+        <v>0.7425899405415538</v>
       </c>
       <c r="D27">
-        <v>0.5832398545939212</v>
+        <v>0.5594967329730641</v>
       </c>
       <c r="E27">
-        <v>0.2981354091491526</v>
+        <v>0.6622243486121349</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.222274178806355</v>
+        <v>-0.3598338133264065</v>
       </c>
       <c r="C28">
-        <v>0.2333801813271565</v>
+        <v>0.5071434186770157</v>
       </c>
       <c r="D28">
-        <v>0.2716651332574213</v>
+        <v>0.48128262126097</v>
       </c>
       <c r="E28">
-        <v>0.1691203074162095</v>
+        <v>0.2312904965791224</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.5032505647789151</v>
+        <v>-0.4938972178801674</v>
       </c>
       <c r="C29">
-        <v>0.7869901229872239</v>
+        <v>0.5967983800654165</v>
       </c>
       <c r="D29">
-        <v>0.5280006717135839</v>
+        <v>0.6678098025243931</v>
       </c>
       <c r="E29">
-        <v>0.3253779387717788</v>
+        <v>0.4036792072095739</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.8587001959345041</v>
+        <v>-0.4673375181473142</v>
       </c>
       <c r="C30">
-        <v>1.044133984064441</v>
+        <v>0.6703925468480277</v>
       </c>
       <c r="D30">
-        <v>0.7022749716773976</v>
+        <v>0.6197157598044718</v>
       </c>
       <c r="E30">
-        <v>0.5928288529857566</v>
+        <v>0.1620081007435918</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.5402762644086979</v>
+        <v>-0.3922874918914698</v>
       </c>
       <c r="C31">
-        <v>0.7186749411102276</v>
+        <v>0.4346231449011861</v>
       </c>
       <c r="D31">
-        <v>0.2804714332890039</v>
+        <v>0.5046363813562822</v>
       </c>
       <c r="E31">
-        <v>0.4859627080649528</v>
+        <v>0.2899931354578303</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.6997862349281364</v>
+        <v>-0.003752741284055511</v>
       </c>
       <c r="C32">
-        <v>0.9153508709067633</v>
+        <v>0.005287364494319864</v>
       </c>
       <c r="D32">
-        <v>0.6140299426321142</v>
+        <v>0.003952114620571139</v>
       </c>
       <c r="E32">
-        <v>0.4279932449472922</v>
+        <v>0.002817487568454054</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.6949351349436346</v>
+        <v>-0.542500610677781</v>
       </c>
       <c r="C33">
-        <v>1.126385979080961</v>
+        <v>0.8220872036011845</v>
       </c>
       <c r="D33">
-        <v>0.2112116834000077</v>
+        <v>0.3503268295526939</v>
       </c>
       <c r="E33">
-        <v>0.7010923437648821</v>
+        <v>0.4870132964797335</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.9311256578887438</v>
+        <v>-0.1925256938624027</v>
       </c>
       <c r="C34">
-        <v>0.8374066875508096</v>
+        <v>0.245686137419548</v>
       </c>
       <c r="D34">
-        <v>1.02423645110857</v>
+        <v>0.1756467392293087</v>
       </c>
       <c r="E34">
-        <v>0.3882683811645082</v>
+        <v>0.2322409952968315</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.6947400224153467</v>
+        <v>-0.9360190994920325</v>
       </c>
       <c r="C35">
-        <v>0.8091322118085494</v>
+        <v>1.21056629907886</v>
       </c>
       <c r="D35">
-        <v>0.7906959233759018</v>
+        <v>0.6769749945889882</v>
       </c>
       <c r="E35">
-        <v>0.3987718732413661</v>
+        <v>0.5792024078470409</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.120640131492141</v>
+        <v>-0.6062471614743297</v>
       </c>
       <c r="C36">
-        <v>0.978081702361317</v>
+        <v>0.6997818266769074</v>
       </c>
       <c r="D36">
-        <v>1.156206707779466</v>
+        <v>0.7301380896449839</v>
       </c>
       <c r="E36">
-        <v>0.5226331154297568</v>
+        <v>0.2388204524042336</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7147609511410233</v>
+        <v>-0.7446358154004018</v>
       </c>
       <c r="C37">
-        <v>0.9500670654774894</v>
+        <v>1.063828513024759</v>
       </c>
       <c r="D37">
-        <v>0.7987225118288852</v>
+        <v>0.479688871560721</v>
       </c>
       <c r="E37">
-        <v>0.1505493723013603</v>
+        <v>0.5960344590945187</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.5477550219130647</v>
+        <v>-0.3951610888250045</v>
       </c>
       <c r="C38">
-        <v>0.741239750898692</v>
+        <v>0.585990666904568</v>
       </c>
       <c r="D38">
-        <v>0.3358981808611925</v>
+        <v>0.5197161764615295</v>
       </c>
       <c r="E38">
-        <v>0.3831440756468889</v>
+        <v>0.3363126861213754</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.9150951748787381</v>
+        <v>-0.7114176110657022</v>
       </c>
       <c r="C39">
-        <v>1.274598355978064</v>
+        <v>0.7997161590949231</v>
       </c>
       <c r="D39">
-        <v>0.4728118323050721</v>
+        <v>0.6242821371972664</v>
       </c>
       <c r="E39">
-        <v>0.4539031757969744</v>
+        <v>0.5649848888307948</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.8789755656800918</v>
+        <v>-0.7915939594072766</v>
       </c>
       <c r="C40">
-        <v>1.222494308099344</v>
+        <v>0.778169037929176</v>
       </c>
       <c r="D40">
-        <v>0.3067373848208513</v>
+        <v>0.9208587355975215</v>
       </c>
       <c r="E40">
-        <v>0.6430985460844048</v>
+        <v>0.4826839248532844</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.7114695412712807</v>
+        <v>-0.5101855005103828</v>
       </c>
       <c r="C41">
-        <v>0.8381948221248252</v>
+        <v>0.73095257078878</v>
       </c>
       <c r="D41">
-        <v>0.7424504622822035</v>
+        <v>0.6332245644568519</v>
       </c>
       <c r="E41">
-        <v>0.4541519616293574</v>
+        <v>0.4060903565238133</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.1499141475582044</v>
+        <v>-0.175678130960303</v>
       </c>
       <c r="C42">
-        <v>0.283261647023233</v>
+        <v>0.2473598491246828</v>
       </c>
       <c r="D42">
-        <v>0.1656167306994182</v>
+        <v>0.212336261802056</v>
       </c>
       <c r="E42">
-        <v>0.07732877413897654</v>
+        <v>0.159105417781079</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.1936319734339474</v>
+        <v>-0.2016749592036068</v>
       </c>
       <c r="C43">
-        <v>0.2993345350309294</v>
+        <v>0.2961879910938848</v>
       </c>
       <c r="D43">
-        <v>0.1848584947525099</v>
+        <v>0.2044816555408995</v>
       </c>
       <c r="E43">
-        <v>0.1272094059057825</v>
+        <v>0.1514057160480713</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.398271878612388</v>
+        <v>-0.8104390885831446</v>
       </c>
       <c r="C44">
-        <v>0.5403464040638544</v>
+        <v>1.188278873884831</v>
       </c>
       <c r="D44">
-        <v>0.4222240963902554</v>
+        <v>0.6534294791325345</v>
       </c>
       <c r="E44">
-        <v>0.3103373424581793</v>
+        <v>0.4196762104769549</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.6823048634445275</v>
+        <v>-0.706734967307866</v>
       </c>
       <c r="C45">
-        <v>0.8895119748516153</v>
+        <v>0.9620403802434406</v>
       </c>
       <c r="D45">
-        <v>0.6381926879377853</v>
+        <v>0.8315692525206531</v>
       </c>
       <c r="E45">
-        <v>0.3916678588562242</v>
+        <v>0.3953872023297592</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.4656437851587965</v>
+        <v>-0.4287958417307974</v>
       </c>
       <c r="C46">
-        <v>0.7283170646161214</v>
+        <v>0.7136700155369804</v>
       </c>
       <c r="D46">
-        <v>0.517828769699189</v>
+        <v>0.4727141405018078</v>
       </c>
       <c r="E46">
-        <v>0.1841884644477614</v>
+        <v>0.3583894699967624</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.3792257351788466</v>
+        <v>-0.003429900776639108</v>
       </c>
       <c r="C47">
-        <v>0.6175201901270398</v>
+        <v>0.004559838894709502</v>
       </c>
       <c r="D47">
-        <v>0.3575498630331571</v>
+        <v>0.003495815258739836</v>
       </c>
       <c r="E47">
-        <v>0.2352125963914548</v>
+        <v>0.003752623864911413</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.6495990766691285</v>
+        <v>-0.56487384035675</v>
       </c>
       <c r="C48">
-        <v>0.8413994857673603</v>
+        <v>0.7456570582529961</v>
       </c>
       <c r="D48">
-        <v>0.5617705590766151</v>
+        <v>0.6891663484584942</v>
       </c>
       <c r="E48">
-        <v>0.4452075252695138</v>
+        <v>0.3759950281550355</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.7601281671101777</v>
+        <v>-0.002582224836846361</v>
       </c>
       <c r="C49">
-        <v>0.9333198719447003</v>
+        <v>0.003933821781590888</v>
       </c>
       <c r="D49">
-        <v>0.853746440889362</v>
+        <v>0.004033485055545453</v>
       </c>
       <c r="E49">
-        <v>0.271568093570332</v>
+        <v>0.001888952539253227</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.6386786254034204</v>
+        <v>-0.5359151976201896</v>
       </c>
       <c r="C50">
-        <v>0.7657754891454956</v>
+        <v>0.7549870499073578</v>
       </c>
       <c r="D50">
-        <v>0.7492389271325959</v>
+        <v>0.6511552603741467</v>
       </c>
       <c r="E50">
-        <v>0.2680633755557374</v>
+        <v>0.3886892608116749</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.6720151675772427</v>
+        <v>-0.4695434222253688</v>
       </c>
       <c r="C51">
-        <v>1.156504203136053</v>
+        <v>0.4442453330954142</v>
       </c>
       <c r="D51">
-        <v>0.1922179237344609</v>
+        <v>0.6810830843960016</v>
       </c>
       <c r="E51">
-        <v>0.49069747288216</v>
+        <v>0.3791065992295295</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.5449520126399764</v>
+        <v>-0.003282860545314923</v>
       </c>
       <c r="C52">
-        <v>0.6863481310631776</v>
+        <v>0.00361009443809524</v>
       </c>
       <c r="D52">
-        <v>0.2151723059622181</v>
+        <v>0.00502580616226132</v>
       </c>
       <c r="E52">
-        <v>0.5243582301825591</v>
+        <v>0.00260662354691481</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.227796591401285</v>
+        <v>-1.028151808443113</v>
       </c>
       <c r="C53">
-        <v>0.2043007727345379</v>
+        <v>0.930565445193056</v>
       </c>
       <c r="D53">
-        <v>0.2752229986102531</v>
+        <v>1.324690312363649</v>
       </c>
       <c r="E53">
-        <v>0.2098148603840864</v>
+        <v>0.5127165541373744</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.6756687506634601</v>
+        <v>-0.1826181747199905</v>
       </c>
       <c r="C54">
-        <v>0.730984909117544</v>
+        <v>0.1917591842635097</v>
       </c>
       <c r="D54">
-        <v>0.7907690466795998</v>
+        <v>0.263721905165496</v>
       </c>
       <c r="E54">
-        <v>0.3666320871387602</v>
+        <v>0.186360576291258</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0336051531636606</v>
+        <v>-0.6677388287702556</v>
       </c>
       <c r="C55">
-        <v>0.03799472644287081</v>
+        <v>1.004762371110154</v>
       </c>
       <c r="D55">
-        <v>0.04055067635192559</v>
+        <v>0.7390528135553782</v>
       </c>
       <c r="E55">
-        <v>0.02917308823679743</v>
+        <v>0.102611608680418</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6754487348960251</v>
+        <v>-0.02438681526793048</v>
       </c>
       <c r="C56">
-        <v>0.9883674863389448</v>
+        <v>0.03540793621881952</v>
       </c>
       <c r="D56">
-        <v>0.6175820296083923</v>
+        <v>0.03232089570462664</v>
       </c>
       <c r="E56">
-        <v>0.3343321651697576</v>
+        <v>0.02880840541122978</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.3745137663773465</v>
+        <v>-0.8796925525491638</v>
       </c>
       <c r="C57">
-        <v>0.4255141583002559</v>
+        <v>1.185917233750944</v>
       </c>
       <c r="D57">
-        <v>0.515107015560792</v>
+        <v>0.4071976494608167</v>
       </c>
       <c r="E57">
-        <v>0.2882304430010213</v>
+        <v>0.6777867810014531</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.1521435222773712</v>
+        <v>-0.7165102748692833</v>
       </c>
       <c r="C58">
-        <v>0.2534925403765722</v>
+        <v>0.6023277247697085</v>
       </c>
       <c r="D58">
-        <v>0.1783514595185052</v>
+        <v>0.6444876557848396</v>
       </c>
       <c r="E58">
-        <v>0.1195785384334589</v>
+        <v>0.5607366900943691</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1508898586129762</v>
+        <v>-0.2124983878275269</v>
       </c>
       <c r="C59">
-        <v>0.2406421632286333</v>
+        <v>0.2857112150910466</v>
       </c>
       <c r="D59">
-        <v>0.1687271662811262</v>
+        <v>0.2181761093202999</v>
       </c>
       <c r="E59">
-        <v>0.1439454815121874</v>
+        <v>0.1880094776915296</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.7736008835162871</v>
+        <v>-0.2331787036957034</v>
       </c>
       <c r="C60">
-        <v>0.7588126921465377</v>
+        <v>0.2452106597889649</v>
       </c>
       <c r="D60">
-        <v>0.9524760130754804</v>
+        <v>0.3116043695783217</v>
       </c>
       <c r="E60">
-        <v>0.2609463567941557</v>
+        <v>0.1493890942882661</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.4938584369019174</v>
+        <v>-0.788633140864714</v>
       </c>
       <c r="C61">
-        <v>0.9940731238371339</v>
+        <v>1.09478174178661</v>
       </c>
       <c r="D61">
-        <v>0.4498372291708231</v>
+        <v>0.7485707161683092</v>
       </c>
       <c r="E61">
-        <v>0.09094405531056578</v>
+        <v>0.4230151788730019</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.3405124638689417</v>
+        <v>-0.7081283939413375</v>
       </c>
       <c r="C62">
-        <v>0.6513778039362643</v>
+        <v>0.9948222031934111</v>
       </c>
       <c r="D62">
-        <v>0.4452705216707987</v>
+        <v>0.8649799895816379</v>
       </c>
       <c r="E62">
-        <v>0.103328914866233</v>
+        <v>0.1813768923280697</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.8731775275276762</v>
+        <v>-0.9895513434122567</v>
       </c>
       <c r="C63">
-        <v>1.090325725491457</v>
+        <v>1.077766397422055</v>
       </c>
       <c r="D63">
-        <v>0.5081810702789289</v>
+        <v>0.6794023561271336</v>
       </c>
       <c r="E63">
-        <v>0.5729500676538394</v>
+        <v>0.817078470216807</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.719740587620094</v>
+        <v>-0.003498050404512866</v>
       </c>
       <c r="C64">
-        <v>0.9142904387262127</v>
+        <v>0.004169784855444588</v>
       </c>
       <c r="D64">
-        <v>0.6973653922775166</v>
+        <v>0.004350250885111826</v>
       </c>
       <c r="E64">
-        <v>0.2358538381112582</v>
+        <v>0.003414710852699203</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.4674552132787923</v>
+        <v>-0.5658278415260654</v>
       </c>
       <c r="C65">
-        <v>0.6506513494535167</v>
+        <v>0.4371842222297549</v>
       </c>
       <c r="D65">
-        <v>0.6260415888395628</v>
+        <v>0.6438201517426179</v>
       </c>
       <c r="E65">
-        <v>0.2975040583132156</v>
+        <v>0.4277069039431429</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.7000767249389097</v>
+        <v>-0.1857762816094948</v>
       </c>
       <c r="C66">
-        <v>0.6863861108997955</v>
+        <v>0.2164602459131927</v>
       </c>
       <c r="D66">
-        <v>0.9463125440998253</v>
+        <v>0.2594463135499939</v>
       </c>
       <c r="E66">
-        <v>0.2508139921393377</v>
+        <v>0.1590989209777936</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.818003439627483</v>
+        <v>-0.003437895217140231</v>
       </c>
       <c r="C67">
-        <v>1.091048641690718</v>
+        <v>0.00428439530910864</v>
       </c>
       <c r="D67">
-        <v>0.7423164391154298</v>
+        <v>0.003900130422489176</v>
       </c>
       <c r="E67">
-        <v>0.3719851415063669</v>
+        <v>0.00369509375250516</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.8006754307441931</v>
+        <v>-0.5747728906856111</v>
       </c>
       <c r="C68">
-        <v>1.368412272804999</v>
+        <v>0.7215091154725766</v>
       </c>
       <c r="D68">
-        <v>0.3775460475509196</v>
+        <v>0.6315894133303086</v>
       </c>
       <c r="E68">
-        <v>0.2589219320095677</v>
+        <v>0.3064117754855606</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-1.067681437727009</v>
+        <v>-0.8312575569890867</v>
       </c>
       <c r="C69">
-        <v>1.269735990589064</v>
+        <v>1.266013766129825</v>
       </c>
       <c r="D69">
-        <v>0.9222922635804709</v>
+        <v>0.4857092241876764</v>
       </c>
       <c r="E69">
-        <v>0.5044417790264685</v>
+        <v>0.3872224162678271</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.003972414736006387</v>
+        <v>-0.6372041241331673</v>
       </c>
       <c r="C70">
-        <v>0.004545586726066139</v>
+        <v>0.9007784027322919</v>
       </c>
       <c r="D70">
-        <v>0.004610969150066009</v>
+        <v>0.6430672023054221</v>
       </c>
       <c r="E70">
-        <v>0.002804387561099014</v>
+        <v>0.394983200857845</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.00375979049929982</v>
+        <v>-0.004092171733478067</v>
       </c>
       <c r="C71">
-        <v>0.004784623910578623</v>
+        <v>0.004064000485892</v>
       </c>
       <c r="D71">
-        <v>0.003812800450169004</v>
+        <v>0.004991151843002321</v>
       </c>
       <c r="E71">
-        <v>0.003116167483637463</v>
+        <v>0.003829498330186588</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1501439659425221</v>
+        <v>-0.3673010695122031</v>
       </c>
       <c r="C72">
-        <v>0.2509839865949274</v>
+        <v>0.4263661278278826</v>
       </c>
       <c r="D72">
-        <v>0.1816949717602082</v>
+        <v>0.5712887813508495</v>
       </c>
       <c r="E72">
-        <v>0.112470485341582</v>
+        <v>0.2538200013270414</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.4456320012418615</v>
+        <v>-0.5401140028705133</v>
       </c>
       <c r="C73">
-        <v>0.4955226650226877</v>
+        <v>0.6770090771480179</v>
       </c>
       <c r="D73">
-        <v>0.4327892177071248</v>
+        <v>0.690992358831939</v>
       </c>
       <c r="E73">
-        <v>0.3893159310781278</v>
+        <v>0.2654072159704281</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.1539151142341545</v>
+        <v>-0.257474514521368</v>
       </c>
       <c r="C74">
-        <v>0.2282326399832262</v>
+        <v>0.2288643011411056</v>
       </c>
       <c r="D74">
-        <v>0.2014530054856607</v>
+        <v>0.3093774444808433</v>
       </c>
       <c r="E74">
-        <v>0.1346547996557921</v>
+        <v>0.2090522362549138</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.6900617644265434</v>
+        <v>-0.3671326725761273</v>
       </c>
       <c r="C75">
-        <v>0.8522181389971017</v>
+        <v>0.3619105574567583</v>
       </c>
       <c r="D75">
-        <v>0.6552195982730253</v>
+        <v>0.5456632445538644</v>
       </c>
       <c r="E75">
-        <v>0.4164387163610869</v>
+        <v>0.2866340500119402</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.7040231475103512</v>
+        <v>-0.6200298310173156</v>
       </c>
       <c r="C76">
-        <v>0.7599500093480386</v>
+        <v>0.7513930756983596</v>
       </c>
       <c r="D76">
-        <v>0.8409216939209454</v>
+        <v>0.7736849523933105</v>
       </c>
       <c r="E76">
-        <v>0.3238186490422905</v>
+        <v>0.2575001526061665</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4491842427802066</v>
+        <v>-0.7452395039685177</v>
       </c>
       <c r="C77">
-        <v>0.6559499446071015</v>
+        <v>0.6811961279952506</v>
       </c>
       <c r="D77">
-        <v>0.3998366956508135</v>
+        <v>1.023386431018212</v>
       </c>
       <c r="E77">
-        <v>0.3531921053718031</v>
+        <v>0.3053868220358718</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.8039925401615095</v>
+        <v>-0.5990762455497455</v>
       </c>
       <c r="C78">
-        <v>1.163743200718899</v>
+        <v>0.5632272340352547</v>
       </c>
       <c r="D78">
-        <v>0.6661082685434797</v>
+        <v>0.7134374334363776</v>
       </c>
       <c r="E78">
-        <v>0.3232018201622803</v>
+        <v>0.4291713385828045</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.3469897283369137</v>
+        <v>-0.542363945978601</v>
       </c>
       <c r="C79">
-        <v>0.4014175243648487</v>
+        <v>0.6930638771380045</v>
       </c>
       <c r="D79">
-        <v>0.4575423221635095</v>
+        <v>0.3788441050459114</v>
       </c>
       <c r="E79">
-        <v>0.2811689088275823</v>
+        <v>0.5487030294544184</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.4672630259675678</v>
+        <v>-0.002537946856461728</v>
       </c>
       <c r="C80">
-        <v>0.7949138008256995</v>
+        <v>0.003517113046077937</v>
       </c>
       <c r="D80">
-        <v>0.4962716041575265</v>
+        <v>0.003591647670015892</v>
       </c>
       <c r="E80">
-        <v>0.08288079367400711</v>
+        <v>0.003094322414224476</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.8086138464274094</v>
+        <v>-0.5432558388911997</v>
       </c>
       <c r="C81">
-        <v>1.082711010747496</v>
+        <v>0.595191012521628</v>
       </c>
       <c r="D81">
-        <v>0.8465838329923262</v>
+        <v>0.6281281967930918</v>
       </c>
       <c r="E81">
-        <v>0.1431112772422652</v>
+        <v>0.4498114332720876</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.7917740219004946</v>
+        <v>-0.6643559890342944</v>
       </c>
       <c r="C82">
-        <v>1.257463855064018</v>
+        <v>0.7942217979657388</v>
       </c>
       <c r="D82">
-        <v>0.3269144998966536</v>
+        <v>0.878251117370301</v>
       </c>
       <c r="E82">
-        <v>0.4395697227247636</v>
+        <v>0.1063030017627627</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.6064794981332565</v>
+        <v>-0.1695363173582971</v>
       </c>
       <c r="C83">
-        <v>0.719724775651162</v>
+        <v>0.2488402866354089</v>
       </c>
       <c r="D83">
-        <v>0.3713515345801661</v>
+        <v>0.191896462155999</v>
       </c>
       <c r="E83">
-        <v>0.4867267156492067</v>
+        <v>0.1781572141563442</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.3991413446481924</v>
+        <v>-0.003408472713404431</v>
       </c>
       <c r="C84">
-        <v>0.6362754087492372</v>
+        <v>0.00448751093799041</v>
       </c>
       <c r="D84">
-        <v>0.3807362535139021</v>
+        <v>0.004503010003160934</v>
       </c>
       <c r="E84">
-        <v>0.2386983553169549</v>
+        <v>0.002526926997674409</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.6557916084406596</v>
+        <v>-0.004038708168909446</v>
       </c>
       <c r="C85">
-        <v>0.9582694378032721</v>
+        <v>0.003936426169009227</v>
       </c>
       <c r="D85">
-        <v>0.6038569362644753</v>
+        <v>0.00547028716519873</v>
       </c>
       <c r="E85">
-        <v>0.3031469408690105</v>
+        <v>0.003168614169811185</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.5507725450662151</v>
+        <v>-0.5530271889195908</v>
       </c>
       <c r="C86">
-        <v>0.8173689171756729</v>
+        <v>0.6292460702409984</v>
       </c>
       <c r="D86">
-        <v>0.5446010561934697</v>
+        <v>0.5374187871000826</v>
       </c>
       <c r="E86">
-        <v>0.1706584913209379</v>
+        <v>0.3907014790179376</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.9757068831867427</v>
+        <v>-0.3897657898063754</v>
       </c>
       <c r="C87">
-        <v>1.153691672212434</v>
+        <v>0.5187692710543231</v>
       </c>
       <c r="D87">
-        <v>1.100863534372722</v>
+        <v>0.4548638278675621</v>
       </c>
       <c r="E87">
-        <v>0.2866548125388643</v>
+        <v>0.3371011977070121</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.9113360356248601</v>
+        <v>-0.5526636687785873</v>
       </c>
       <c r="C88">
-        <v>1.501341749607382</v>
+        <v>0.7952042515162823</v>
       </c>
       <c r="D88">
-        <v>0.3558886573847327</v>
+        <v>0.417224891010463</v>
       </c>
       <c r="E88">
-        <v>0.6191159240528255</v>
+        <v>0.3797512358925186</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.6248630600672495</v>
+        <v>-0.6003059244405895</v>
       </c>
       <c r="C89">
-        <v>1.055181169916916</v>
+        <v>0.5995283670719418</v>
       </c>
       <c r="D89">
-        <v>0.5605454824789925</v>
+        <v>0.7868829888729738</v>
       </c>
       <c r="E89">
-        <v>0.1188794260403508</v>
+        <v>0.5234911971973752</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.4757963934774841</v>
+        <v>-0.6033945056493673</v>
       </c>
       <c r="C90">
-        <v>0.7810093211601529</v>
+        <v>0.8023394062172002</v>
       </c>
       <c r="D90">
-        <v>0.4465760119614969</v>
+        <v>0.3455759513171321</v>
       </c>
       <c r="E90">
-        <v>0.1561720181095119</v>
+        <v>0.6009779625654855</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.9539137529414179</v>
+        <v>-0.6674783407761589</v>
       </c>
       <c r="C91">
-        <v>1.147029018573036</v>
+        <v>0.7862105075432545</v>
       </c>
       <c r="D91">
-        <v>0.9072350689035454</v>
+        <v>0.4707659276519705</v>
       </c>
       <c r="E91">
-        <v>0.3153468004412513</v>
+        <v>0.5464058239582852</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.6894992752198986</v>
+        <v>-0.003178483408692357</v>
       </c>
       <c r="C92">
-        <v>0.9449901013951195</v>
+        <v>0.003954138000200967</v>
       </c>
       <c r="D92">
-        <v>0.697294254823953</v>
+        <v>0.004451335068078007</v>
       </c>
       <c r="E92">
-        <v>0.2425832702773327</v>
+        <v>0.002862523745807095</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3883337793559153</v>
+        <v>-0.67766042688427</v>
       </c>
       <c r="C93">
-        <v>0.6009640320584734</v>
+        <v>0.9731800004948796</v>
       </c>
       <c r="D93">
-        <v>0.2219214192263896</v>
+        <v>0.6291121470816157</v>
       </c>
       <c r="E93">
-        <v>0.430840242516965</v>
+        <v>0.3983966004003421</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.5661200979362796</v>
+        <v>-0.5652483196084962</v>
       </c>
       <c r="C94">
-        <v>0.855499629572427</v>
+        <v>0.860528585464428</v>
       </c>
       <c r="D94">
-        <v>0.1897563851472963</v>
+        <v>0.5331535666205903</v>
       </c>
       <c r="E94">
-        <v>0.5119532461918217</v>
+        <v>0.3690911133826745</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.8845936232337721</v>
+        <v>-0.5044534656243944</v>
       </c>
       <c r="C95">
-        <v>1.336674742396903</v>
+        <v>0.8559235557865583</v>
       </c>
       <c r="D95">
-        <v>0.3231060311761187</v>
+        <v>0.3595588547246363</v>
       </c>
       <c r="E95">
-        <v>0.5715917190634303</v>
+        <v>0.3301466749562577</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.5571256392058146</v>
+        <v>-0.4255905203642473</v>
       </c>
       <c r="C96">
-        <v>0.8085594447991344</v>
+        <v>0.5600613466468912</v>
       </c>
       <c r="D96">
-        <v>0.6118157127849143</v>
+        <v>0.5096409924818825</v>
       </c>
       <c r="E96">
-        <v>0.1931714621151717</v>
+        <v>0.4398993542105165</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.4598554679892937</v>
+        <v>-0.00370508030652036</v>
       </c>
       <c r="C97">
-        <v>0.7672943961470324</v>
+        <v>0.00391272623216221</v>
       </c>
       <c r="D97">
-        <v>0.2369116088208726</v>
+        <v>0.004725483558566008</v>
       </c>
       <c r="E97">
-        <v>0.3432563797643269</v>
+        <v>0.003614418008011595</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.02139541956825359</v>
+        <v>-0.1992253884252284</v>
       </c>
       <c r="C98">
-        <v>0.03182040473257922</v>
+        <v>0.2046476793742913</v>
       </c>
       <c r="D98">
-        <v>0.03219384442830717</v>
+        <v>0.3033710566995373</v>
       </c>
       <c r="E98">
-        <v>0.02159760468956239</v>
+        <v>0.1320181949845301</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.4675091788427311</v>
+        <v>-0.561016824786554</v>
       </c>
       <c r="C99">
-        <v>0.6910867300104195</v>
+        <v>0.9049639866222924</v>
       </c>
       <c r="D99">
-        <v>0.5941070649771963</v>
+        <v>0.5309089788653036</v>
       </c>
       <c r="E99">
-        <v>0.2565540361300475</v>
+        <v>0.3746626023195693</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.7507578035428563</v>
+        <v>-0.5207828084107086</v>
       </c>
       <c r="C100">
-        <v>1.087451571277755</v>
+        <v>0.7511950714843006</v>
       </c>
       <c r="D100">
-        <v>0.6072837797251639</v>
+        <v>0.2825082644632993</v>
       </c>
       <c r="E100">
-        <v>0.3649933545502609</v>
+        <v>0.5700146727290299</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.003339738088263926</v>
+        <v>-0.7123444206096633</v>
       </c>
       <c r="C101">
-        <v>0.003539632105367588</v>
+        <v>1.129966749917674</v>
       </c>
       <c r="D101">
-        <v>0.00398806434086368</v>
+        <v>0.5093305389356301</v>
       </c>
       <c r="E101">
-        <v>0.003650646096578665</v>
+        <v>0.3613965773819731</v>
       </c>
     </row>
   </sheetData>
